--- a/exceldata/featureoverview.xlsx
+++ b/exceldata/featureoverview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasch\OneDrive\Dokumente\Studium\Systems Engineering\EBM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ML\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3721C948-A590-43B5-A724-9020F0213517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0AC8DA-EB77-49F8-842E-2223C8544399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C63861C6-181B-410B-B144-5D7A39D97EAA}"/>
+    <workbookView xWindow="-10725" yWindow="2565" windowWidth="21600" windowHeight="11430" activeTab="1" xr2:uid="{C63861C6-181B-410B-B144-5D7A39D97EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="vor 13.8" sheetId="1" r:id="rId1"/>
@@ -127,13 +127,13 @@
     <t>epoch,max_deflection,axis_ratio,p2p_azimuth_unwrapped,</t>
   </si>
   <si>
-    <t>epoch, wind_speed_3, wind_dir_3_corr, height_3</t>
-  </si>
-  <si>
-    <t>epoch, Dirp, TSea, Hmax, Tmax, Hav, Tav, #Waves</t>
-  </si>
-  <si>
     <t>mit epoch 1x</t>
+  </si>
+  <si>
+    <t>epoch, wind_speed_3, wind_dir_3_corr</t>
+  </si>
+  <si>
+    <t>epoch, Dirp, TSea, Hmax, Tmax, Hav, Tav</t>
   </si>
 </sst>
 </file>
@@ -615,33 +615,33 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="79.33203125" customWidth="1"/>
-    <col min="8" max="8" width="156.5546875" customWidth="1"/>
-    <col min="9" max="9" width="44.21875" customWidth="1"/>
-    <col min="10" max="10" width="99.21875" customWidth="1"/>
+    <col min="7" max="7" width="79.28515625" customWidth="1"/>
+    <col min="8" max="8" width="156.5703125" customWidth="1"/>
+    <col min="9" max="9" width="44.28515625" customWidth="1"/>
+    <col min="10" max="10" width="99.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -673,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -700,7 +700,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -727,7 +727,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -759,7 +759,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -931,7 +931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -992,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -1017,7 +1017,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -1108,13 +1108,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I24" s="4"/>
     </row>
   </sheetData>
@@ -1127,34 +1127,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC654A3D-108F-44E4-B25F-C02AFEC14A4F}">
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:I11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="90.109375" customWidth="1"/>
-    <col min="8" max="8" width="135.77734375" customWidth="1"/>
-    <col min="9" max="9" width="122.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="90.140625" customWidth="1"/>
+    <col min="8" max="8" width="135.7109375" customWidth="1"/>
+    <col min="9" max="9" width="122.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>4</v>
@@ -1183,7 +1183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1214,18 +1214,18 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" s="21" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="21" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -1238,20 +1238,20 @@
       </c>
       <c r="E7" s="18">
         <f>E6+E5</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1261,18 +1261,18 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="14">
         <v>8</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>5</v>
       </c>
@@ -1285,20 +1285,20 @@
       </c>
       <c r="E9" s="18">
         <f>E8+E5</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1311,20 +1311,20 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14">
         <f>E8+E6</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="14">
         <v>11</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>26</v>
-      </c>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>7</v>
       </c>
@@ -1339,22 +1339,22 @@
       </c>
       <c r="E11" s="18">
         <f>E6+E5+E8</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" s="18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>26</v>
       </c>
       <c r="I11" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="G12" s="10" t="s">
         <v>14</v>
       </c>
@@ -1362,12 +1362,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="G13" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="G15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1383,27 +1383,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H16" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" s="7" t="s">
         <v>18</v>
       </c>

--- a/exceldata/featureoverview.xlsx
+++ b/exceldata/featureoverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ML\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0AC8DA-EB77-49F8-842E-2223C8544399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72778107-73A6-4B2C-BA13-206DC5E66E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10725" yWindow="2565" windowWidth="21600" windowHeight="11430" activeTab="1" xr2:uid="{C63861C6-181B-410B-B144-5D7A39D97EAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C63861C6-181B-410B-B144-5D7A39D97EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="vor 13.8" sheetId="1" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
   <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
